--- a/data/Data.xlsx
+++ b/data/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\rom-folderer\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F624D9-7A1B-459D-9ECD-0AC88F704A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BADF67-6730-4316-9B8C-09A986AF20C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{09D53552-1463-4F16-9BD4-A353FB5A1398}"/>
+    <workbookView xWindow="20280" yWindow="14910" windowWidth="23760" windowHeight="15510" activeTab="1" xr2:uid="{09D53552-1463-4F16-9BD4-A353FB5A1398}"/>
   </bookViews>
   <sheets>
     <sheet name="Systems" sheetId="1" r:id="rId1"/>
@@ -469,7 +469,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F045E33-1671-4698-A15E-5993233E5D1E}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -530,7 +532,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,7 +558,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -567,7 +569,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -578,7 +580,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -589,7 +591,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>

--- a/data/Data.xlsx
+++ b/data/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\rom-folderer\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BADF67-6730-4316-9B8C-09A986AF20C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB85C6AC-5422-42FA-828C-3C937F5C34A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20280" yWindow="14910" windowWidth="23760" windowHeight="15510" activeTab="1" xr2:uid="{09D53552-1463-4F16-9BD4-A353FB5A1398}"/>
+    <workbookView xWindow="28170" yWindow="8265" windowWidth="23760" windowHeight="15510" activeTab="1" xr2:uid="{09D53552-1463-4F16-9BD4-A353FB5A1398}"/>
   </bookViews>
   <sheets>
     <sheet name="Systems" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="299">
   <si>
     <t>System</t>
   </si>
@@ -51,18 +51,12 @@
     <t>nes</t>
   </si>
   <si>
-    <t>fc</t>
-  </si>
-  <si>
     <t>Super Nintendo Entertainment System</t>
   </si>
   <si>
     <t>snes</t>
   </si>
   <si>
-    <t>sfc</t>
-  </si>
-  <si>
     <t>Structure</t>
   </si>
   <si>
@@ -72,7 +66,874 @@
     <t>Folder</t>
   </si>
   <si>
-    <t>Structure 2</t>
+    <t>Commodore 64</t>
+  </si>
+  <si>
+    <t>Sony Playstation</t>
+  </si>
+  <si>
+    <t>Arcade</t>
+  </si>
+  <si>
+    <t>Sega Genesis</t>
+  </si>
+  <si>
+    <t>Nintendo Game Boy Advance</t>
+  </si>
+  <si>
+    <t>Nintendo Game Boy</t>
+  </si>
+  <si>
+    <t>SNK Neo Geo AES</t>
+  </si>
+  <si>
+    <t>Nintendo Game Boy Color</t>
+  </si>
+  <si>
+    <t>NEC TurboGrafx-16</t>
+  </si>
+  <si>
+    <t>Sega Master System</t>
+  </si>
+  <si>
+    <t>Sega CD</t>
+  </si>
+  <si>
+    <t>Atari 2600</t>
+  </si>
+  <si>
+    <t>Sega Game Gear</t>
+  </si>
+  <si>
+    <t>SNK Neo Geo CD</t>
+  </si>
+  <si>
+    <t>NEC TurboGrafx-CD</t>
+  </si>
+  <si>
+    <t>SNK Neo Geo Pocket</t>
+  </si>
+  <si>
+    <t>Sega CD 32X</t>
+  </si>
+  <si>
+    <t>Atari Lynx</t>
+  </si>
+  <si>
+    <t>Sony PSP</t>
+  </si>
+  <si>
+    <t>Nintendo DS</t>
+  </si>
+  <si>
+    <t>ZiNc</t>
+  </si>
+  <si>
+    <t>XaviXPORT</t>
+  </si>
+  <si>
+    <t>WonderSwan Color</t>
+  </si>
+  <si>
+    <t>WonderSwan</t>
+  </si>
+  <si>
+    <t>WoW Action Max</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>Vector-06C</t>
+  </si>
+  <si>
+    <t>VTech V.Smile</t>
+  </si>
+  <si>
+    <t>VTech Socrates</t>
+  </si>
+  <si>
+    <t>VTech CreatiVision</t>
+  </si>
+  <si>
+    <t>Tomy Tutor</t>
+  </si>
+  <si>
+    <t>Tiger Game.com</t>
+  </si>
+  <si>
+    <t>Texas Instruments TI 99_4A</t>
+  </si>
+  <si>
+    <t>Tapwave Zodiac</t>
+  </si>
+  <si>
+    <t>Tandy TRS-80</t>
+  </si>
+  <si>
+    <t>Taito Type X</t>
+  </si>
+  <si>
+    <t>TRS-80 Color Computer</t>
+  </si>
+  <si>
+    <t>Spectravideo</t>
+  </si>
+  <si>
+    <t>Sord M5</t>
+  </si>
+  <si>
+    <t>Sony PocketStation</t>
+  </si>
+  <si>
+    <t>Sony Playstation Vita</t>
+  </si>
+  <si>
+    <t>Sony Playstation 5</t>
+  </si>
+  <si>
+    <t>Sony Playstation 4</t>
+  </si>
+  <si>
+    <t>Sony Playstation 3</t>
+  </si>
+  <si>
+    <t>Sony Playstation 2</t>
+  </si>
+  <si>
+    <t>Sony PSP Minis</t>
+  </si>
+  <si>
+    <t>Sinclair ZX-81</t>
+  </si>
+  <si>
+    <t>Sinclair ZX Spectrum</t>
+  </si>
+  <si>
+    <t>Sharp X68000</t>
+  </si>
+  <si>
+    <t>Sharp X1</t>
+  </si>
+  <si>
+    <t>Sharp MZ-2500</t>
+  </si>
+  <si>
+    <t>Sega Saturn</t>
+  </si>
+  <si>
+    <t>Sega SG-1000</t>
+  </si>
+  <si>
+    <t>Sega SC-3000</t>
+  </si>
+  <si>
+    <t>Sega Pico</t>
+  </si>
+  <si>
+    <t>Sega Dreamcast VMU</t>
+  </si>
+  <si>
+    <t>Sega Dreamcast</t>
+  </si>
+  <si>
+    <t>Sega 32X</t>
+  </si>
+  <si>
+    <t>ScummVM</t>
+  </si>
+  <si>
+    <t>SNK Neo Geo Pocket Color</t>
+  </si>
+  <si>
+    <t>SAM CoupÃ©</t>
+  </si>
+  <si>
+    <t>RCA Studio II</t>
+  </si>
+  <si>
+    <t>Philips Videopac+</t>
+  </si>
+  <si>
+    <t>Philips VG 5000</t>
+  </si>
+  <si>
+    <t>Philips CD-i</t>
+  </si>
+  <si>
+    <t>PICO-8</t>
+  </si>
+  <si>
+    <t>PC Engine SuperGrafx</t>
+  </si>
+  <si>
+    <t>Ouya</t>
+  </si>
+  <si>
+    <t>Othello Multivision</t>
+  </si>
+  <si>
+    <t>Oric Atmos</t>
+  </si>
+  <si>
+    <t>OpenBOR</t>
+  </si>
+  <si>
+    <t>Nuon</t>
+  </si>
+  <si>
+    <t>Nintendo Wii U</t>
+  </si>
+  <si>
+    <t>Nintendo Wii</t>
+  </si>
+  <si>
+    <t>Nintendo Virtual Boy</t>
+  </si>
+  <si>
+    <t>Nintendo Switch</t>
+  </si>
+  <si>
+    <t>Nintendo Satellaview</t>
+  </si>
+  <si>
+    <t>Nintendo Pokemon Mini</t>
+  </si>
+  <si>
+    <t>Nintendo GameCube</t>
+  </si>
+  <si>
+    <t>Nintendo Game &amp; Watch</t>
+  </si>
+  <si>
+    <t>Nintendo Famicom Disk System</t>
+  </si>
+  <si>
+    <t>Nintendo 64DD</t>
+  </si>
+  <si>
+    <t>Nintendo 64</t>
+  </si>
+  <si>
+    <t>Nintendo 3DS</t>
+  </si>
+  <si>
+    <t>NEC PC-FX</t>
+  </si>
+  <si>
+    <t>NEC PC-9801</t>
+  </si>
+  <si>
+    <t>NEC PC-8801</t>
+  </si>
+  <si>
+    <t>Microsoft Xbox Series X_S</t>
+  </si>
+  <si>
+    <t>Microsoft Xbox One</t>
+  </si>
+  <si>
+    <t>Microsoft Xbox 360</t>
+  </si>
+  <si>
+    <t>Microsoft Xbox</t>
+  </si>
+  <si>
+    <t>Microsoft MSX2+</t>
+  </si>
+  <si>
+    <t>Microsoft MSX2</t>
+  </si>
+  <si>
+    <t>Microsoft MSX</t>
+  </si>
+  <si>
+    <t>Memotech MTX512</t>
+  </si>
+  <si>
+    <t>Mega Duck</t>
+  </si>
+  <si>
+    <t>Mattel Intellivision</t>
+  </si>
+  <si>
+    <t>Mattel HyperScan</t>
+  </si>
+  <si>
+    <t>Mattel Aquarius</t>
+  </si>
+  <si>
+    <t>Matra and Hachette Alice</t>
+  </si>
+  <si>
+    <t>Magnavox Odyssey 2</t>
+  </si>
+  <si>
+    <t>Magnavox Odyssey</t>
+  </si>
+  <si>
+    <t>MUGEN</t>
+  </si>
+  <si>
+    <t>Jupiter Ace</t>
+  </si>
+  <si>
+    <t>Interton VC 4000</t>
+  </si>
+  <si>
+    <t>Hector HRX</t>
+  </si>
+  <si>
+    <t>Hartung Game Master</t>
+  </si>
+  <si>
+    <t>GamePark GP32</t>
+  </si>
+  <si>
+    <t>Game Wave Family Entertainment System</t>
+  </si>
+  <si>
+    <t>GCE Vectrex</t>
+  </si>
+  <si>
+    <t>Funtech Super Acan</t>
+  </si>
+  <si>
+    <t>Fujitsu FM-7</t>
+  </si>
+  <si>
+    <t>Fujitsu FM Towns Marty</t>
+  </si>
+  <si>
+    <t>Fairchild Channel F</t>
+  </si>
+  <si>
+    <t>Exidy Sorcerer</t>
+  </si>
+  <si>
+    <t>Exelvision EXL 100</t>
+  </si>
+  <si>
+    <t>Epoch Super Cassette Vision</t>
+  </si>
+  <si>
+    <t>Epoch Game Pocket Computer</t>
+  </si>
+  <si>
+    <t>Entex Adventure Vision</t>
+  </si>
+  <si>
+    <t>Enterprise</t>
+  </si>
+  <si>
+    <t>Emerson Arcadia 2001</t>
+  </si>
+  <si>
+    <t>Elektronika BK</t>
+  </si>
+  <si>
+    <t>EACA EG2000 Colour Genie</t>
+  </si>
+  <si>
+    <t>Dragon 32_64</t>
+  </si>
+  <si>
+    <t>Commodore VIC-20</t>
+  </si>
+  <si>
+    <t>Commodore Plus 4</t>
+  </si>
+  <si>
+    <t>Commodore PET</t>
+  </si>
+  <si>
+    <t>Commodore MAX Machine</t>
+  </si>
+  <si>
+    <t>Commodore CDTV</t>
+  </si>
+  <si>
+    <t>Commodore Amiga CD32</t>
+  </si>
+  <si>
+    <t>Commodore Amiga</t>
+  </si>
+  <si>
+    <t>Commodore 128</t>
+  </si>
+  <si>
+    <t>ColecoVision</t>
+  </si>
+  <si>
+    <t>Coleco ADAM</t>
+  </si>
+  <si>
+    <t>Casio PV-1000</t>
+  </si>
+  <si>
+    <t>Casio Loopy</t>
+  </si>
+  <si>
+    <t>Camputers Lynx</t>
+  </si>
+  <si>
+    <t>Bally Astrocade</t>
+  </si>
+  <si>
+    <t>BBC Microcomputer System</t>
+  </si>
+  <si>
+    <t>Atari XEGS</t>
+  </si>
+  <si>
+    <t>Atari ST</t>
+  </si>
+  <si>
+    <t>Atari Jaguar CD</t>
+  </si>
+  <si>
+    <t>Atari Jaguar</t>
+  </si>
+  <si>
+    <t>Atari 800</t>
+  </si>
+  <si>
+    <t>Atari 7800</t>
+  </si>
+  <si>
+    <t>Atari 5200</t>
+  </si>
+  <si>
+    <t>Apple iOS</t>
+  </si>
+  <si>
+    <t>Apple Mac OS</t>
+  </si>
+  <si>
+    <t>Apple IIGS</t>
+  </si>
+  <si>
+    <t>Apple II</t>
+  </si>
+  <si>
+    <t>Apogee BK-01</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>Amstrad GX4000</t>
+  </si>
+  <si>
+    <t>Amstrad CPC</t>
+  </si>
+  <si>
+    <t>Acorn Electron</t>
+  </si>
+  <si>
+    <t>Acorn Atom</t>
+  </si>
+  <si>
+    <t>Acorn Archimedes</t>
+  </si>
+  <si>
+    <t>Aamber Pegasus</t>
+  </si>
+  <si>
+    <t>APF Imagination Machine</t>
+  </si>
+  <si>
+    <t>3DO Interactive Multiplayer</t>
+  </si>
+  <si>
+    <t>c64</t>
+  </si>
+  <si>
+    <t>nes,fc</t>
+  </si>
+  <si>
+    <t>ps,ps1</t>
+  </si>
+  <si>
+    <t>snes,sfc</t>
+  </si>
+  <si>
+    <t>gba</t>
+  </si>
+  <si>
+    <t>ngaes,ng-aes</t>
+  </si>
+  <si>
+    <t>gbc</t>
+  </si>
+  <si>
+    <t>pce,pcengine</t>
+  </si>
+  <si>
+    <t>ms,sms</t>
+  </si>
+  <si>
+    <t>genesis,md,smd</t>
+  </si>
+  <si>
+    <t>scd</t>
+  </si>
+  <si>
+    <t>wsc</t>
+  </si>
+  <si>
+    <t>sgg,gg</t>
+  </si>
+  <si>
+    <t>ngp</t>
+  </si>
+  <si>
+    <t>ngcdng-cd</t>
+  </si>
+  <si>
+    <t>tgcd,tg-cd,pcecd,pcengine-cd</t>
+  </si>
+  <si>
+    <t>wam</t>
+  </si>
+  <si>
+    <t>32x,scd32x</t>
+  </si>
+  <si>
+    <t>psp,spsp</t>
+  </si>
+  <si>
+    <t>ds,nds</t>
+  </si>
+  <si>
+    <t>32x,s32x</t>
+  </si>
+  <si>
+    <t>ngpcng-color</t>
+  </si>
+  <si>
+    <t>5000,pvg</t>
+  </si>
+  <si>
+    <t>64dd,n64dd</t>
+  </si>
+  <si>
+    <t>3ds,n3ds</t>
+  </si>
+  <si>
+    <t>4000,ivc</t>
+  </si>
+  <si>
+    <t>pet,cpet</t>
+  </si>
+  <si>
+    <t>st,ast</t>
+  </si>
+  <si>
+    <t>lynx</t>
+  </si>
+  <si>
+    <t>supervision</t>
+  </si>
+  <si>
+    <t>socrates</t>
+  </si>
+  <si>
+    <t>zodiac</t>
+  </si>
+  <si>
+    <t>x68000</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>saturn</t>
+  </si>
+  <si>
+    <t>pico</t>
+  </si>
+  <si>
+    <t>dreamcast</t>
+  </si>
+  <si>
+    <t>videopac+</t>
+  </si>
+  <si>
+    <t>wii</t>
+  </si>
+  <si>
+    <t>switch</t>
+  </si>
+  <si>
+    <t>satellaview</t>
+  </si>
+  <si>
+    <t>xbox</t>
+  </si>
+  <si>
+    <t>intellivision</t>
+  </si>
+  <si>
+    <t>odyssey</t>
+  </si>
+  <si>
+    <t>ace</t>
+  </si>
+  <si>
+    <t>vectrex</t>
+  </si>
+  <si>
+    <t>amiga</t>
+  </si>
+  <si>
+    <t>colecovision</t>
+  </si>
+  <si>
+    <t>adam</t>
+  </si>
+  <si>
+    <t>jaguar</t>
+  </si>
+  <si>
+    <t>ios</t>
+  </si>
+  <si>
+    <t>iigs</t>
+  </si>
+  <si>
+    <t>electron</t>
+  </si>
+  <si>
+    <t>atom</t>
+  </si>
+  <si>
+    <t>archimedes</t>
+  </si>
+  <si>
+    <t>pegasus</t>
+  </si>
+  <si>
+    <t>xbox 360</t>
+  </si>
+  <si>
+    <t>odyssey 2</t>
+  </si>
+  <si>
+    <t>ngw</t>
+  </si>
+  <si>
+    <t>sxs</t>
+  </si>
+  <si>
+    <t>win.pc</t>
+  </si>
+  <si>
+    <t>watara,supervision</t>
+  </si>
+  <si>
+    <t>06c,vector</t>
+  </si>
+  <si>
+    <t>v.smile,vspile</t>
+  </si>
+  <si>
+    <t>vtcv,creativision</t>
+  </si>
+  <si>
+    <t>tutor,tomytutor</t>
+  </si>
+  <si>
+    <t>tiger</t>
+  </si>
+  <si>
+    <t>ti99,ti-99</t>
+  </si>
+  <si>
+    <t>trs80,trs-80</t>
+  </si>
+  <si>
+    <t>taito,typex,type-x</t>
+  </si>
+  <si>
+    <t>trs-80coco,coco</t>
+  </si>
+  <si>
+    <t>m5,sm5</t>
+  </si>
+  <si>
+    <t>psv,vita</t>
+  </si>
+  <si>
+    <t>pocketstation</t>
+  </si>
+  <si>
+    <t>spectrum</t>
+  </si>
+  <si>
+    <t>playstation 5,ps5</t>
+  </si>
+  <si>
+    <t>playstation 4,ps4</t>
+  </si>
+  <si>
+    <t>playstation 3,ps3</t>
+  </si>
+  <si>
+    <t>playstation 2,ps1</t>
+  </si>
+  <si>
+    <t>psp-mini</t>
+  </si>
+  <si>
+    <t>zx-81,zx81</t>
+  </si>
+  <si>
+    <t>mz-2500,mz2500</t>
+  </si>
+  <si>
+    <t>sg1000,sg-1000</t>
+  </si>
+  <si>
+    <t>sg3000,sg-3000</t>
+  </si>
+  <si>
+    <t>scrumm</t>
+  </si>
+  <si>
+    <t>cdi,cd-i</t>
+  </si>
+  <si>
+    <t>pico8,pico-8,pico</t>
+  </si>
+  <si>
+    <t>wii-u,wiiu</t>
+  </si>
+  <si>
+    <t>nvb,vb</t>
+  </si>
+  <si>
+    <t>npm,pm</t>
+  </si>
+  <si>
+    <t>ngc,gc</t>
+  </si>
+  <si>
+    <t>fds</t>
+  </si>
+  <si>
+    <t>n64</t>
+  </si>
+  <si>
+    <t>xbo,xbone</t>
+  </si>
+  <si>
+    <t>mhs,hyperscan</t>
+  </si>
+  <si>
+    <t>failchild,channel f,channelf,chennel-f</t>
+  </si>
+  <si>
+    <t>plus 4,plus-4,plus4</t>
+  </si>
+  <si>
+    <t>vic20,vic-20,vic 20</t>
+  </si>
+  <si>
+    <t>amigacd,cdtv</t>
+  </si>
+  <si>
+    <t>c128,c-128</t>
+  </si>
+  <si>
+    <t>a800,a800</t>
+  </si>
+  <si>
+    <t>7800,a7800</t>
+  </si>
+  <si>
+    <t>jaguarcd,jagual-cd</t>
+  </si>
+  <si>
+    <t>5200,a5200</t>
+  </si>
+  <si>
+    <t>macos</t>
+  </si>
+  <si>
+    <t>apple 2,a2,apple2</t>
+  </si>
+  <si>
+    <t>android</t>
+  </si>
+  <si>
+    <t>3do</t>
+  </si>
+  <si>
+    <t>LaunchBox</t>
+  </si>
+  <si>
+    <t>MAME</t>
+  </si>
+  <si>
+    <t>atari2600</t>
+  </si>
+  <si>
+    <t>psx</t>
+  </si>
+  <si>
+    <t>megadrive</t>
+  </si>
+  <si>
+    <t>GBA</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>NEOGEO</t>
+  </si>
+  <si>
+    <t>SCUMMVM</t>
+  </si>
+  <si>
+    <t>LYNX</t>
+  </si>
+  <si>
+    <t>N64</t>
+  </si>
+  <si>
+    <t>GBC</t>
+  </si>
+  <si>
+    <t>PCE</t>
+  </si>
+  <si>
+    <t>GG</t>
+  </si>
+  <si>
+    <t>PSP</t>
+  </si>
+  <si>
+    <t>SEGACD</t>
+  </si>
+  <si>
+    <t>NEOCD</t>
+  </si>
+  <si>
+    <t>PCECD</t>
+  </si>
+  <si>
+    <t>DOS</t>
+  </si>
+  <si>
+    <t>mame</t>
+  </si>
+  <si>
+    <t>2600,vcs</t>
+  </si>
+  <si>
+    <t>Playstatio 1</t>
   </si>
 </sst>
 </file>
@@ -128,8 +989,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D065D7AB-A292-4036-9844-635F817BC81A}" name="Table1" displayName="Table1" ref="A1:B5" totalsRowShown="0">
-  <autoFilter ref="A1:B5" xr:uid="{D065D7AB-A292-4036-9844-635F817BC81A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D065D7AB-A292-4036-9844-635F817BC81A}" name="Table1" displayName="Table1" ref="A1:B164" totalsRowShown="0">
+  <autoFilter ref="A1:B164" xr:uid="{D065D7AB-A292-4036-9844-635F817BC81A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B164">
+    <sortCondition ref="A1:A164"/>
+  </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{03677591-FEF6-4A7E-B4CB-A02BED2F4C95}" name="System"/>
     <tableColumn id="2" xr3:uid="{F48648F1-C31A-4F71-804C-D25D88A40E7B}" name="Keyword"/>
@@ -139,8 +1003,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4CE2A18A-F344-4044-A6A7-48818099567F}" name="Table2" displayName="Table2" ref="A1:C5" totalsRowShown="0">
-  <autoFilter ref="A1:C5" xr:uid="{4CE2A18A-F344-4044-A6A7-48818099567F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4CE2A18A-F344-4044-A6A7-48818099567F}" name="Table2" displayName="Table2" ref="A1:C185" totalsRowShown="0">
+  <autoFilter ref="A1:C185" xr:uid="{4CE2A18A-F344-4044-A6A7-48818099567F}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{6BE9B38B-C91E-418C-886E-5F6EFACD5A7B}" name="Structure"/>
     <tableColumn id="2" xr3:uid="{24C6A616-D590-4926-96CD-760C8F1C8ADD}" name="System"/>
@@ -467,16 +1331,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F045E33-1671-4698-A15E-5993233E5D1E}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B164"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -489,50 +1353,1167 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>165</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B20" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B22" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>149</v>
+      </c>
+      <c r="B24" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>141</v>
+      </c>
+      <c r="B32" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>138</v>
+      </c>
+      <c r="B36" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>135</v>
+      </c>
+      <c r="B39" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>134</v>
+      </c>
+      <c r="B40" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>295</v>
+      </c>
+      <c r="B42" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>113</v>
+      </c>
+      <c r="B62" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>112</v>
+      </c>
+      <c r="B63" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>110</v>
+      </c>
+      <c r="B64" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>109</v>
+      </c>
+      <c r="B65" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>106</v>
+      </c>
+      <c r="B68" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>105</v>
+      </c>
+      <c r="B69" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>99</v>
+      </c>
+      <c r="B75" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>98</v>
+      </c>
+      <c r="B76" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>97</v>
+      </c>
+      <c r="B77" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>96</v>
+      </c>
+      <c r="B78" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>17</v>
+      </c>
+      <c r="B83" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>23</v>
+      </c>
+      <c r="B84" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>92</v>
+      </c>
+      <c r="B85" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>28</v>
+      </c>
+      <c r="B88" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>88</v>
+      </c>
+      <c r="B91" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>13</v>
+      </c>
+      <c r="B93" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>16</v>
+      </c>
+      <c r="B94" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>87</v>
+      </c>
+      <c r="B95" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>86</v>
+      </c>
+      <c r="B96" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>85</v>
+      </c>
+      <c r="B97" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>84</v>
+      </c>
+      <c r="B98" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>83</v>
+      </c>
+      <c r="B99" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>82</v>
+      </c>
+      <c r="B100" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>81</v>
+      </c>
+      <c r="B101" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>73</v>
+      </c>
+      <c r="B108" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>72</v>
+      </c>
+      <c r="B109" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>71</v>
+      </c>
+      <c r="B110" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>74</v>
+      </c>
+      <c r="B111" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>285</v>
+      </c>
+      <c r="B113" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>66</v>
+      </c>
+      <c r="B114" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>19</v>
+      </c>
+      <c r="B115" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>25</v>
+      </c>
+      <c r="B116" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>65</v>
+      </c>
+      <c r="B117" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>21</v>
+      </c>
+      <c r="B119" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>12</v>
+      </c>
+      <c r="B120" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>18</v>
+      </c>
+      <c r="B121" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>63</v>
+      </c>
+      <c r="B122" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>60</v>
+      </c>
+      <c r="B123" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>62</v>
+      </c>
+      <c r="B124" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>61</v>
+      </c>
+      <c r="B125" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>59</v>
+      </c>
+      <c r="B126" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>58</v>
+      </c>
+      <c r="B127" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>57</v>
+      </c>
+      <c r="B128" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>56</v>
+      </c>
+      <c r="B129" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>55</v>
+      </c>
+      <c r="B130" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>15</v>
+      </c>
+      <c r="B131" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>22</v>
+      </c>
+      <c r="B132" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>24</v>
+      </c>
+      <c r="B133" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>68</v>
+      </c>
+      <c r="B134" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>10</v>
+      </c>
+      <c r="B135" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>53</v>
+      </c>
+      <c r="B136" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>52</v>
+      </c>
+      <c r="B137" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>51</v>
+      </c>
+      <c r="B138" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>50</v>
+      </c>
+      <c r="B139" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>49</v>
+      </c>
+      <c r="B140" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>48</v>
+      </c>
+      <c r="B141" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>27</v>
+      </c>
+      <c r="B142" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>54</v>
+      </c>
+      <c r="B143" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>47</v>
+      </c>
+      <c r="B144" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>4</v>
+      </c>
+      <c r="B146" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>44</v>
+      </c>
+      <c r="B147" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>43</v>
+      </c>
+      <c r="B148" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>42</v>
+      </c>
+      <c r="B149" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>41</v>
+      </c>
+      <c r="B150" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>40</v>
+      </c>
+      <c r="B151" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>39</v>
+      </c>
+      <c r="B152" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>45</v>
+      </c>
+      <c r="B153" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>35</v>
+      </c>
+      <c r="B154" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>38</v>
+      </c>
+      <c r="B155" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>37</v>
+      </c>
+      <c r="B156" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>36</v>
+      </c>
+      <c r="B157" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>230</v>
+      </c>
+      <c r="B158" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>34</v>
+      </c>
+      <c r="B159" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>31</v>
+      </c>
+      <c r="B161" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>33</v>
+      </c>
+      <c r="B162" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1930EB-6B5A-4138-8372-6C9155206B66}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="B183" sqref="B183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,57 +2525,2037 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>277</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>277</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>277</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>277</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>277</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>277</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>277</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>277</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>277</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>277</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>277</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>277</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>277</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>277</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>277</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>277</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>277</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>277</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>277</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>277</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>277</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>277</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>277</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>277</v>
+      </c>
+      <c r="B30" t="s">
+        <v>230</v>
+      </c>
+      <c r="C30" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>277</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>277</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>277</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>277</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>277</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>277</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>277</v>
+      </c>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>277</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>277</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>277</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>277</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>277</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>277</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>277</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>277</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>277</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>277</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>277</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>277</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>277</v>
+      </c>
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>277</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>277</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>277</v>
+      </c>
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>277</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>277</v>
+      </c>
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>277</v>
+      </c>
+      <c r="B56" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>277</v>
+      </c>
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>277</v>
+      </c>
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>277</v>
+      </c>
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>277</v>
+      </c>
+      <c r="B60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>277</v>
+      </c>
+      <c r="B62" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>277</v>
+      </c>
+      <c r="B63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>277</v>
+      </c>
+      <c r="B64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>277</v>
+      </c>
+      <c r="B65" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>277</v>
+      </c>
+      <c r="B66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>277</v>
+      </c>
+      <c r="B67" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>277</v>
+      </c>
+      <c r="B68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>277</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>277</v>
+      </c>
+      <c r="B70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>277</v>
+      </c>
+      <c r="B71" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>277</v>
+      </c>
+      <c r="B72" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>277</v>
+      </c>
+      <c r="B73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>277</v>
+      </c>
+      <c r="B74" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>277</v>
+      </c>
+      <c r="B75" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>277</v>
+      </c>
+      <c r="B76" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>277</v>
+      </c>
+      <c r="B77" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>277</v>
+      </c>
+      <c r="B78" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>277</v>
+      </c>
+      <c r="B79" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>277</v>
+      </c>
+      <c r="B80" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>277</v>
+      </c>
+      <c r="B81" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>277</v>
+      </c>
+      <c r="B82" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>277</v>
+      </c>
+      <c r="B83" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>277</v>
+      </c>
+      <c r="B84" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>277</v>
+      </c>
+      <c r="B85" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>277</v>
+      </c>
+      <c r="B86" t="s">
+        <v>90</v>
+      </c>
+      <c r="C86" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>277</v>
+      </c>
+      <c r="B87" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>277</v>
+      </c>
+      <c r="B88" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>277</v>
+      </c>
+      <c r="B89" t="s">
+        <v>93</v>
+      </c>
+      <c r="C89" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>277</v>
+      </c>
+      <c r="B90" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>277</v>
+      </c>
+      <c r="B91" t="s">
+        <v>95</v>
+      </c>
+      <c r="C91" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>277</v>
+      </c>
+      <c r="B92" t="s">
+        <v>96</v>
+      </c>
+      <c r="C92" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>277</v>
+      </c>
+      <c r="B93" t="s">
+        <v>97</v>
+      </c>
+      <c r="C93" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>277</v>
+      </c>
+      <c r="B94" t="s">
+        <v>98</v>
+      </c>
+      <c r="C94" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>277</v>
+      </c>
+      <c r="B95" t="s">
+        <v>99</v>
+      </c>
+      <c r="C95" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>277</v>
+      </c>
+      <c r="B96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C96" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>277</v>
+      </c>
+      <c r="B97" t="s">
+        <v>101</v>
+      </c>
+      <c r="C97" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>277</v>
+      </c>
+      <c r="B98" t="s">
+        <v>102</v>
+      </c>
+      <c r="C98" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>277</v>
+      </c>
+      <c r="B99" t="s">
+        <v>103</v>
+      </c>
+      <c r="C99" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>277</v>
+      </c>
+      <c r="B100" t="s">
+        <v>104</v>
+      </c>
+      <c r="C100" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>277</v>
+      </c>
+      <c r="B101" t="s">
+        <v>105</v>
+      </c>
+      <c r="C101" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>277</v>
+      </c>
+      <c r="B102" t="s">
+        <v>106</v>
+      </c>
+      <c r="C102" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>277</v>
+      </c>
+      <c r="B103" t="s">
+        <v>107</v>
+      </c>
+      <c r="C103" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>277</v>
+      </c>
+      <c r="B104" t="s">
+        <v>108</v>
+      </c>
+      <c r="C104" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>277</v>
+      </c>
+      <c r="B105" t="s">
+        <v>109</v>
+      </c>
+      <c r="C105" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>277</v>
+      </c>
+      <c r="B106" t="s">
+        <v>110</v>
+      </c>
+      <c r="C106" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>277</v>
+      </c>
+      <c r="B107" t="s">
+        <v>111</v>
+      </c>
+      <c r="C107" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>277</v>
+      </c>
+      <c r="B108" t="s">
+        <v>112</v>
+      </c>
+      <c r="C108" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>277</v>
+      </c>
+      <c r="B109" t="s">
+        <v>113</v>
+      </c>
+      <c r="C109" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>277</v>
+      </c>
+      <c r="B110" t="s">
+        <v>114</v>
+      </c>
+      <c r="C110" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>277</v>
+      </c>
+      <c r="B111" t="s">
+        <v>115</v>
+      </c>
+      <c r="C111" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>277</v>
+      </c>
+      <c r="B112" t="s">
+        <v>116</v>
+      </c>
+      <c r="C112" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>277</v>
+      </c>
+      <c r="B113" t="s">
+        <v>117</v>
+      </c>
+      <c r="C113" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>277</v>
+      </c>
+      <c r="B114" t="s">
+        <v>118</v>
+      </c>
+      <c r="C114" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>277</v>
+      </c>
+      <c r="B115" t="s">
+        <v>119</v>
+      </c>
+      <c r="C115" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>277</v>
+      </c>
+      <c r="B116" t="s">
+        <v>120</v>
+      </c>
+      <c r="C116" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>277</v>
+      </c>
+      <c r="B117" t="s">
+        <v>121</v>
+      </c>
+      <c r="C117" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>277</v>
+      </c>
+      <c r="B118" t="s">
+        <v>122</v>
+      </c>
+      <c r="C118" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>277</v>
+      </c>
+      <c r="B119" t="s">
+        <v>123</v>
+      </c>
+      <c r="C119" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>277</v>
+      </c>
+      <c r="B120" t="s">
+        <v>124</v>
+      </c>
+      <c r="C120" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>277</v>
+      </c>
+      <c r="B121" t="s">
+        <v>125</v>
+      </c>
+      <c r="C121" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>277</v>
+      </c>
+      <c r="B122" t="s">
+        <v>126</v>
+      </c>
+      <c r="C122" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>277</v>
+      </c>
+      <c r="B123" t="s">
+        <v>127</v>
+      </c>
+      <c r="C123" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>277</v>
+      </c>
+      <c r="B124" t="s">
+        <v>128</v>
+      </c>
+      <c r="C124" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>277</v>
+      </c>
+      <c r="B125" t="s">
+        <v>129</v>
+      </c>
+      <c r="C125" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>277</v>
+      </c>
+      <c r="B126" t="s">
+        <v>130</v>
+      </c>
+      <c r="C126" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>277</v>
+      </c>
+      <c r="B127" t="s">
+        <v>131</v>
+      </c>
+      <c r="C127" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>277</v>
+      </c>
+      <c r="B128" t="s">
+        <v>132</v>
+      </c>
+      <c r="C128" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>277</v>
+      </c>
+      <c r="B129" t="s">
+        <v>133</v>
+      </c>
+      <c r="C129" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>277</v>
+      </c>
+      <c r="B130" t="s">
+        <v>134</v>
+      </c>
+      <c r="C130" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>277</v>
+      </c>
+      <c r="B131" t="s">
+        <v>135</v>
+      </c>
+      <c r="C131" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>277</v>
+      </c>
+      <c r="B132" t="s">
+        <v>136</v>
+      </c>
+      <c r="C132" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>277</v>
+      </c>
+      <c r="B133" t="s">
+        <v>137</v>
+      </c>
+      <c r="C133" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>277</v>
+      </c>
+      <c r="B134" t="s">
+        <v>138</v>
+      </c>
+      <c r="C134" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>277</v>
+      </c>
+      <c r="B135" t="s">
+        <v>139</v>
+      </c>
+      <c r="C135" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>277</v>
+      </c>
+      <c r="B136" t="s">
+        <v>140</v>
+      </c>
+      <c r="C136" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>277</v>
+      </c>
+      <c r="B137" t="s">
+        <v>141</v>
+      </c>
+      <c r="C137" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>277</v>
+      </c>
+      <c r="B138" t="s">
+        <v>142</v>
+      </c>
+      <c r="C138" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>277</v>
+      </c>
+      <c r="B139" t="s">
+        <v>143</v>
+      </c>
+      <c r="C139" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>277</v>
+      </c>
+      <c r="B140" t="s">
+        <v>144</v>
+      </c>
+      <c r="C140" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>277</v>
+      </c>
+      <c r="B141" t="s">
+        <v>145</v>
+      </c>
+      <c r="C141" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>277</v>
+      </c>
+      <c r="B142" t="s">
+        <v>146</v>
+      </c>
+      <c r="C142" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>277</v>
+      </c>
+      <c r="B143" t="s">
+        <v>147</v>
+      </c>
+      <c r="C143" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>277</v>
+      </c>
+      <c r="B144" t="s">
+        <v>148</v>
+      </c>
+      <c r="C144" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>277</v>
+      </c>
+      <c r="B145" t="s">
+        <v>149</v>
+      </c>
+      <c r="C145" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>277</v>
+      </c>
+      <c r="B146" t="s">
+        <v>150</v>
+      </c>
+      <c r="C146" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>277</v>
+      </c>
+      <c r="B147" t="s">
+        <v>151</v>
+      </c>
+      <c r="C147" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>277</v>
+      </c>
+      <c r="B148" t="s">
+        <v>152</v>
+      </c>
+      <c r="C148" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>277</v>
+      </c>
+      <c r="B149" t="s">
+        <v>153</v>
+      </c>
+      <c r="C149" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>277</v>
+      </c>
+      <c r="B150" t="s">
+        <v>154</v>
+      </c>
+      <c r="C150" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>277</v>
+      </c>
+      <c r="B151" t="s">
+        <v>155</v>
+      </c>
+      <c r="C151" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>277</v>
+      </c>
+      <c r="B152" t="s">
+        <v>156</v>
+      </c>
+      <c r="C152" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>277</v>
+      </c>
+      <c r="B153" t="s">
+        <v>157</v>
+      </c>
+      <c r="C153" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>277</v>
+      </c>
+      <c r="B154" t="s">
+        <v>158</v>
+      </c>
+      <c r="C154" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>277</v>
+      </c>
+      <c r="B155" t="s">
+        <v>159</v>
+      </c>
+      <c r="C155" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>277</v>
+      </c>
+      <c r="B156" t="s">
+        <v>160</v>
+      </c>
+      <c r="C156" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>277</v>
+      </c>
+      <c r="B157" t="s">
+        <v>161</v>
+      </c>
+      <c r="C157" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>277</v>
+      </c>
+      <c r="B158" t="s">
+        <v>162</v>
+      </c>
+      <c r="C158" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>277</v>
+      </c>
+      <c r="B159" t="s">
+        <v>163</v>
+      </c>
+      <c r="C159" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>277</v>
+      </c>
+      <c r="B160" t="s">
+        <v>164</v>
+      </c>
+      <c r="C160" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>277</v>
+      </c>
+      <c r="B161" t="s">
+        <v>165</v>
+      </c>
+      <c r="C161" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>277</v>
+      </c>
+      <c r="B162" t="s">
+        <v>166</v>
+      </c>
+      <c r="C162" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>277</v>
+      </c>
+      <c r="B163" t="s">
+        <v>167</v>
+      </c>
+      <c r="C163" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>277</v>
+      </c>
+      <c r="B164" t="s">
+        <v>168</v>
+      </c>
+      <c r="C164" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>7</v>
+      </c>
+      <c r="B165" t="s">
+        <v>2</v>
+      </c>
+      <c r="C165" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>7</v>
+      </c>
+      <c r="B166" t="s">
+        <v>11</v>
+      </c>
+      <c r="C166" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>7</v>
+      </c>
+      <c r="B167" t="s">
+        <v>9</v>
+      </c>
+      <c r="C167" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>7</v>
+      </c>
+      <c r="B168" t="s">
+        <v>20</v>
+      </c>
+      <c r="C168" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>7</v>
+      </c>
+      <c r="B169" t="s">
+        <v>4</v>
+      </c>
+      <c r="C169" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>7</v>
+      </c>
+      <c r="B170" t="s">
+        <v>298</v>
+      </c>
+      <c r="C170" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>7</v>
+      </c>
+      <c r="B171" t="s">
+        <v>12</v>
+      </c>
+      <c r="C171" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>7</v>
+      </c>
+      <c r="B172" t="s">
+        <v>14</v>
+      </c>
+      <c r="C172" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>7</v>
+      </c>
+      <c r="B173" t="s">
+        <v>13</v>
+      </c>
+      <c r="C173" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>7</v>
+      </c>
+      <c r="B174" t="s">
+        <v>15</v>
+      </c>
+      <c r="C174" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>7</v>
+      </c>
+      <c r="B175" t="s">
+        <v>285</v>
+      </c>
+      <c r="C175" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>7</v>
+      </c>
+      <c r="B176" t="s">
+        <v>26</v>
+      </c>
+      <c r="C176" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>7</v>
+      </c>
+      <c r="B177" t="s">
+        <v>91</v>
+      </c>
+      <c r="C177" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>7</v>
+      </c>
+      <c r="B178" t="s">
+        <v>16</v>
+      </c>
+      <c r="C178" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>7</v>
+      </c>
+      <c r="B179" t="s">
+        <v>17</v>
+      </c>
+      <c r="C179" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>7</v>
+      </c>
+      <c r="B180" t="s">
+        <v>21</v>
+      </c>
+      <c r="C180" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>7</v>
+      </c>
+      <c r="B181" t="s">
+        <v>27</v>
+      </c>
+      <c r="C181" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>7</v>
+      </c>
+      <c r="B182" t="s">
+        <v>19</v>
+      </c>
+      <c r="C182" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>7</v>
+      </c>
+      <c r="B183" t="s">
+        <v>22</v>
+      </c>
+      <c r="C183" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>7</v>
+      </c>
+      <c r="B184" t="s">
+        <v>23</v>
+      </c>
+      <c r="C184" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>7</v>
+      </c>
+      <c r="B185" t="s">
+        <v>295</v>
+      </c>
+      <c r="C185" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data.xlsx
+++ b/data/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\rom-folderer\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB85C6AC-5422-42FA-828C-3C937F5C34A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC6257B-9C7E-4552-9746-5C4C6436FD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28170" yWindow="8265" windowWidth="23760" windowHeight="15510" activeTab="1" xr2:uid="{09D53552-1463-4F16-9BD4-A353FB5A1398}"/>
+    <workbookView xWindow="19320" yWindow="4770" windowWidth="24750" windowHeight="17355" xr2:uid="{09D53552-1463-4F16-9BD4-A353FB5A1398}"/>
   </bookViews>
   <sheets>
     <sheet name="Systems" sheetId="1" r:id="rId1"/>
@@ -849,15 +849,9 @@
     <t>a800,a800</t>
   </si>
   <si>
-    <t>7800,a7800</t>
-  </si>
-  <si>
     <t>jaguarcd,jagual-cd</t>
   </si>
   <si>
-    <t>5200,a5200</t>
-  </si>
-  <si>
     <t>macos</t>
   </si>
   <si>
@@ -930,10 +924,16 @@
     <t>mame</t>
   </si>
   <si>
-    <t>2600,vcs</t>
-  </si>
-  <si>
     <t>Playstatio 1</t>
+  </si>
+  <si>
+    <t>2600,vcs,atari2600</t>
+  </si>
+  <si>
+    <t>5200,a5200,atari5200</t>
+  </si>
+  <si>
+    <t>7800,a7800,atari7800</t>
   </si>
 </sst>
 </file>
@@ -1333,8 +1333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F045E33-1671-4698-A15E-5993233E5D1E}">
   <dimension ref="A1:B164"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1356,7 +1356,7 @@
         <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1406,7 +1406,7 @@
         <v>160</v>
       </c>
       <c r="B9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1424,7 +1424,7 @@
         <v>158</v>
       </c>
       <c r="B12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1448,7 +1448,7 @@
         <v>156</v>
       </c>
       <c r="B15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1456,7 +1456,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1464,7 +1464,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1472,7 +1472,7 @@
         <v>154</v>
       </c>
       <c r="B18" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1480,7 +1480,7 @@
         <v>153</v>
       </c>
       <c r="B19" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1504,7 +1504,7 @@
         <v>150</v>
       </c>
       <c r="B22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1637,10 +1637,10 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B42" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2100,7 +2100,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B113" t="s">
         <v>253</v>
@@ -2512,8 +2512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1930EB-6B5A-4138-8372-6C9155206B66}">
   <dimension ref="A1:C185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="B183" sqref="B183"/>
+    <sheetView topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="B168" sqref="B168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2536,7 +2536,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -2547,7 +2547,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -2558,7 +2558,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -2569,7 +2569,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -2580,7 +2580,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -2591,7 +2591,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -2602,7 +2602,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -2613,7 +2613,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -2624,7 +2624,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -2635,7 +2635,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -2657,7 +2657,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -2679,7 +2679,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
@@ -2690,7 +2690,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
@@ -2701,7 +2701,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
@@ -2712,7 +2712,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
@@ -2723,7 +2723,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
@@ -2734,7 +2734,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -2756,7 +2756,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B22" t="s">
         <v>27</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B23" t="s">
         <v>28</v>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
@@ -2789,7 +2789,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B26" t="s">
         <v>31</v>
@@ -2811,7 +2811,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B27" t="s">
         <v>32</v>
@@ -2822,7 +2822,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B28" t="s">
         <v>33</v>
@@ -2833,7 +2833,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B29" t="s">
         <v>34</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B30" t="s">
         <v>230</v>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
@@ -2866,7 +2866,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B32" t="s">
         <v>36</v>
@@ -2877,7 +2877,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B33" t="s">
         <v>37</v>
@@ -2888,7 +2888,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B34" t="s">
         <v>38</v>
@@ -2899,7 +2899,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B35" t="s">
         <v>39</v>
@@ -2910,7 +2910,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B36" t="s">
         <v>40</v>
@@ -2921,7 +2921,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B37" t="s">
         <v>41</v>
@@ -2932,7 +2932,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B38" t="s">
         <v>42</v>
@@ -2943,7 +2943,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B39" t="s">
         <v>43</v>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B40" t="s">
         <v>44</v>
@@ -2965,7 +2965,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B41" t="s">
         <v>45</v>
@@ -2976,7 +2976,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B42" t="s">
         <v>46</v>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B43" t="s">
         <v>47</v>
@@ -2998,7 +2998,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B44" t="s">
         <v>48</v>
@@ -3009,7 +3009,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B45" t="s">
         <v>49</v>
@@ -3020,7 +3020,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B46" t="s">
         <v>50</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B47" t="s">
         <v>51</v>
@@ -3042,7 +3042,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B48" t="s">
         <v>52</v>
@@ -3053,7 +3053,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B49" t="s">
         <v>53</v>
@@ -3064,7 +3064,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B50" t="s">
         <v>54</v>
@@ -3075,7 +3075,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B51" t="s">
         <v>55</v>
@@ -3086,7 +3086,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B52" t="s">
         <v>56</v>
@@ -3097,7 +3097,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B53" t="s">
         <v>57</v>
@@ -3108,7 +3108,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B54" t="s">
         <v>58</v>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B55" t="s">
         <v>59</v>
@@ -3130,7 +3130,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B56" t="s">
         <v>60</v>
@@ -3141,7 +3141,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B57" t="s">
         <v>61</v>
@@ -3152,7 +3152,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B58" t="s">
         <v>62</v>
@@ -3163,7 +3163,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B59" t="s">
         <v>63</v>
@@ -3174,7 +3174,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B60" t="s">
         <v>64</v>
@@ -3185,7 +3185,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B61" t="s">
         <v>65</v>
@@ -3196,7 +3196,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B62" t="s">
         <v>66</v>
@@ -3207,7 +3207,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B63" t="s">
         <v>67</v>
@@ -3218,7 +3218,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B64" t="s">
         <v>68</v>
@@ -3229,7 +3229,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B65" t="s">
         <v>69</v>
@@ -3240,7 +3240,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B66" t="s">
         <v>70</v>
@@ -3251,7 +3251,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B67" t="s">
         <v>71</v>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B68" t="s">
         <v>72</v>
@@ -3273,7 +3273,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B69" t="s">
         <v>73</v>
@@ -3284,7 +3284,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B70" t="s">
         <v>74</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B71" t="s">
         <v>75</v>
@@ -3306,7 +3306,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B72" t="s">
         <v>76</v>
@@ -3317,7 +3317,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B73" t="s">
         <v>77</v>
@@ -3328,7 +3328,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B74" t="s">
         <v>78</v>
@@ -3339,7 +3339,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B75" t="s">
         <v>79</v>
@@ -3350,7 +3350,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B76" t="s">
         <v>80</v>
@@ -3361,7 +3361,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B77" t="s">
         <v>81</v>
@@ -3372,7 +3372,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B78" t="s">
         <v>82</v>
@@ -3383,7 +3383,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B79" t="s">
         <v>83</v>
@@ -3394,7 +3394,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B80" t="s">
         <v>84</v>
@@ -3405,7 +3405,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B81" t="s">
         <v>85</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B82" t="s">
         <v>86</v>
@@ -3427,7 +3427,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B83" t="s">
         <v>87</v>
@@ -3438,7 +3438,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B84" t="s">
         <v>88</v>
@@ -3449,7 +3449,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B85" t="s">
         <v>89</v>
@@ -3460,7 +3460,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B86" t="s">
         <v>90</v>
@@ -3471,7 +3471,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B87" t="s">
         <v>91</v>
@@ -3482,7 +3482,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B88" t="s">
         <v>92</v>
@@ -3493,7 +3493,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B89" t="s">
         <v>93</v>
@@ -3504,7 +3504,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B90" t="s">
         <v>94</v>
@@ -3515,7 +3515,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B91" t="s">
         <v>95</v>
@@ -3526,7 +3526,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B92" t="s">
         <v>96</v>
@@ -3537,7 +3537,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B93" t="s">
         <v>97</v>
@@ -3548,7 +3548,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B94" t="s">
         <v>98</v>
@@ -3559,7 +3559,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B95" t="s">
         <v>99</v>
@@ -3570,7 +3570,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B96" t="s">
         <v>100</v>
@@ -3581,7 +3581,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B97" t="s">
         <v>101</v>
@@ -3592,7 +3592,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B98" t="s">
         <v>102</v>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B99" t="s">
         <v>103</v>
@@ -3614,7 +3614,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B100" t="s">
         <v>104</v>
@@ -3625,7 +3625,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B101" t="s">
         <v>105</v>
@@ -3636,7 +3636,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B102" t="s">
         <v>106</v>
@@ -3647,7 +3647,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B103" t="s">
         <v>107</v>
@@ -3658,7 +3658,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B104" t="s">
         <v>108</v>
@@ -3669,7 +3669,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B105" t="s">
         <v>109</v>
@@ -3680,7 +3680,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B106" t="s">
         <v>110</v>
@@ -3691,7 +3691,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B107" t="s">
         <v>111</v>
@@ -3702,7 +3702,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B108" t="s">
         <v>112</v>
@@ -3713,7 +3713,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B109" t="s">
         <v>113</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B110" t="s">
         <v>114</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B111" t="s">
         <v>115</v>
@@ -3746,7 +3746,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B112" t="s">
         <v>116</v>
@@ -3757,7 +3757,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B113" t="s">
         <v>117</v>
@@ -3768,7 +3768,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B114" t="s">
         <v>118</v>
@@ -3779,7 +3779,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B115" t="s">
         <v>119</v>
@@ -3790,7 +3790,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B116" t="s">
         <v>120</v>
@@ -3801,7 +3801,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B117" t="s">
         <v>121</v>
@@ -3812,7 +3812,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B118" t="s">
         <v>122</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B119" t="s">
         <v>123</v>
@@ -3834,7 +3834,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B120" t="s">
         <v>124</v>
@@ -3845,7 +3845,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B121" t="s">
         <v>125</v>
@@ -3856,7 +3856,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B122" t="s">
         <v>126</v>
@@ -3867,7 +3867,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B123" t="s">
         <v>127</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B124" t="s">
         <v>128</v>
@@ -3889,7 +3889,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B125" t="s">
         <v>129</v>
@@ -3900,7 +3900,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B126" t="s">
         <v>130</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B127" t="s">
         <v>131</v>
@@ -3922,7 +3922,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B128" t="s">
         <v>132</v>
@@ -3933,7 +3933,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B129" t="s">
         <v>133</v>
@@ -3944,7 +3944,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B130" t="s">
         <v>134</v>
@@ -3955,7 +3955,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B131" t="s">
         <v>135</v>
@@ -3966,7 +3966,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B132" t="s">
         <v>136</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B133" t="s">
         <v>137</v>
@@ -3988,7 +3988,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B134" t="s">
         <v>138</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B135" t="s">
         <v>139</v>
@@ -4010,7 +4010,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B136" t="s">
         <v>140</v>
@@ -4021,7 +4021,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B137" t="s">
         <v>141</v>
@@ -4032,7 +4032,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B138" t="s">
         <v>142</v>
@@ -4043,7 +4043,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B139" t="s">
         <v>143</v>
@@ -4054,7 +4054,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B140" t="s">
         <v>144</v>
@@ -4065,7 +4065,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B141" t="s">
         <v>145</v>
@@ -4076,7 +4076,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B142" t="s">
         <v>146</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B143" t="s">
         <v>147</v>
@@ -4098,7 +4098,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B144" t="s">
         <v>148</v>
@@ -4109,7 +4109,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B145" t="s">
         <v>149</v>
@@ -4120,7 +4120,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B146" t="s">
         <v>150</v>
@@ -4131,7 +4131,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B147" t="s">
         <v>151</v>
@@ -4142,7 +4142,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B148" t="s">
         <v>152</v>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B149" t="s">
         <v>153</v>
@@ -4164,7 +4164,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B150" t="s">
         <v>154</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B151" t="s">
         <v>155</v>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B152" t="s">
         <v>156</v>
@@ -4197,7 +4197,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B153" t="s">
         <v>157</v>
@@ -4208,7 +4208,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B154" t="s">
         <v>158</v>
@@ -4219,7 +4219,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B155" t="s">
         <v>159</v>
@@ -4230,7 +4230,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B156" t="s">
         <v>160</v>
@@ -4241,7 +4241,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B157" t="s">
         <v>161</v>
@@ -4252,7 +4252,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B158" t="s">
         <v>162</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B159" t="s">
         <v>163</v>
@@ -4274,7 +4274,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B160" t="s">
         <v>164</v>
@@ -4285,7 +4285,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B161" t="s">
         <v>165</v>
@@ -4296,7 +4296,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B162" t="s">
         <v>166</v>
@@ -4307,7 +4307,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B163" t="s">
         <v>167</v>
@@ -4318,7 +4318,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B164" t="s">
         <v>168</v>
@@ -4346,7 +4346,7 @@
         <v>11</v>
       </c>
       <c r="C166" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -4368,7 +4368,7 @@
         <v>20</v>
       </c>
       <c r="C168" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -4387,10 +4387,10 @@
         <v>7</v>
       </c>
       <c r="B170" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C170" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -4401,7 +4401,7 @@
         <v>12</v>
       </c>
       <c r="C171" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -4412,7 +4412,7 @@
         <v>14</v>
       </c>
       <c r="C172" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -4423,7 +4423,7 @@
         <v>13</v>
       </c>
       <c r="C173" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -4434,7 +4434,7 @@
         <v>15</v>
       </c>
       <c r="C174" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -4442,10 +4442,10 @@
         <v>7</v>
       </c>
       <c r="B175" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C175" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -4456,7 +4456,7 @@
         <v>26</v>
       </c>
       <c r="C176" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -4467,7 +4467,7 @@
         <v>91</v>
       </c>
       <c r="C177" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -4478,7 +4478,7 @@
         <v>16</v>
       </c>
       <c r="C178" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -4489,7 +4489,7 @@
         <v>17</v>
       </c>
       <c r="C179" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -4500,7 +4500,7 @@
         <v>21</v>
       </c>
       <c r="C180" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -4511,7 +4511,7 @@
         <v>27</v>
       </c>
       <c r="C181" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -4522,7 +4522,7 @@
         <v>19</v>
       </c>
       <c r="C182" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -4533,7 +4533,7 @@
         <v>22</v>
       </c>
       <c r="C183" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -4544,7 +4544,7 @@
         <v>23</v>
       </c>
       <c r="C184" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -4552,10 +4552,10 @@
         <v>7</v>
       </c>
       <c r="B185" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C185" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
